--- a/Excel2JsonTool/Excel/Skill.xlsx
+++ b/Excel2JsonTool/Excel/Skill.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="121">
   <si>
     <t>Id</t>
   </si>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>名字</t>
-  </si>
-  <si>
-    <t>技能类型</t>
   </si>
   <si>
     <t>技能图标</t>
@@ -672,6 +669,43 @@
       </rPr>
       <t>ay_DoT</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型BuffDebuff=1,
+Projectile=2,
+Bullet = 3, 
+DoT = 4, 
+AoE = 5, 
+BasicAttack = 6, 
+Move = 7,
+MeleeSweep = 8,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega/ArcaneTinyObj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害类型Physical =1, 
+Fire=2, 
+Magic=3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>arcane</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼热射线</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -750,7 +784,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,6 +813,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1084,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1247,236 +1284,236 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" ht="94.5">
+    <row r="2" spans="1:38" s="1" customFormat="1" ht="121.5">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AG2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AI2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="P3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="X3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL3" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -1484,79 +1521,79 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>1</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="X4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="AB4" s="2">
         <v>22</v>
@@ -1594,16 +1631,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2">
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="2" t="b">
         <v>0</v>
@@ -1645,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -1702,17 +1739,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="F6" s="2" t="b">
         <v>0</v>
       </c>
@@ -1741,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P6" s="2">
         <v>0</v>
@@ -1756,7 +1793,7 @@
         <v>22</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U6" s="2">
         <v>8</v>
@@ -1813,17 +1850,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="F7" s="2" t="b">
         <v>0</v>
       </c>
@@ -1852,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P7" s="2">
         <v>0</v>
@@ -1867,7 +1904,7 @@
         <v>22</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U7" s="2">
         <v>8</v>
@@ -1924,17 +1961,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="F8" s="2" t="b">
         <v>0</v>
       </c>
@@ -1963,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P8" s="2">
         <v>0</v>
@@ -1978,7 +2015,7 @@
         <v>14</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U8" s="2">
         <v>14</v>
@@ -2035,46 +2072,46 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="P9" s="2">
         <v>0</v>
@@ -2089,7 +2126,7 @@
         <v>22</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U9" s="2">
         <v>8</v>
@@ -2146,17 +2183,17 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="F10" s="2" t="b">
         <v>0</v>
       </c>
@@ -2197,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
@@ -2234,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH10" s="2">
         <v>22</v>
@@ -2257,16 +2294,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2">
         <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2" t="b">
         <v>0</v>
@@ -2308,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
@@ -2329,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB11" s="2">
         <v>0</v>
@@ -2367,16 +2404,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="F12" s="2" t="b">
         <v>0</v>
@@ -2418,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
@@ -2475,16 +2512,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="F13" s="2" t="b">
         <v>1</v>
@@ -2526,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
@@ -2583,16 +2620,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="2">
         <v>8</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F14" s="2" t="b">
         <v>0</v>
@@ -2634,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
@@ -2691,16 +2728,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="2">
         <v>7</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F15" s="2" t="b">
         <v>0</v>
@@ -2742,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
@@ -2799,17 +2836,17 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="2">
         <v>4</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="F16" s="2" t="b">
         <v>0</v>
       </c>
@@ -2850,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
@@ -2887,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH16" s="2">
         <v>22</v>
@@ -2910,16 +2947,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="C17" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F17" s="2" t="b">
         <v>0</v>
@@ -2948,26 +2985,29 @@
       <c r="N17" s="2">
         <v>0</v>
       </c>
+      <c r="O17" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="P17" s="2">
         <v>0</v>
       </c>
       <c r="Q17" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R17" s="2">
         <v>1</v>
       </c>
       <c r="S17" s="2">
-        <v>0</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>76</v>
+        <v>30</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="U17" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V17" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W17" s="2" t="b">
         <v>1</v>
@@ -3018,16 +3058,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="C18" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="F18" s="2" t="b">
         <v>0</v>
@@ -3069,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
@@ -3109,7 +3149,7 @@
         <v>11</v>
       </c>
       <c r="AI18" s="2">
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
       <c r="AJ18" s="2">
         <v>0</v>

--- a/Excel2JsonTool/Excel/Skill.xlsx
+++ b/Excel2JsonTool/Excel/Skill.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
   <si>
     <t>Id</t>
   </si>
@@ -687,10 +687,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Mega/ArcaneTinyObj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>伤害类型Physical =1, 
 Fire=2, 
 Magic=3</t>
@@ -706,6 +702,13 @@
   </si>
   <si>
     <t>fire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ray_Dot_DIY</t>
+  </si>
+  <si>
+    <t>Mega/ArcaneMegaObj</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1121,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AG18" sqref="AG18"/>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1141,7 +1144,7 @@
     <col min="12" max="12" width="17.75" style="2" customWidth="1"/>
     <col min="13" max="13" width="17" style="2" customWidth="1"/>
     <col min="14" max="14" width="18.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.875" style="2" customWidth="1"/>
     <col min="16" max="16" width="16.375" style="2" customWidth="1"/>
     <col min="17" max="17" width="9.875" style="2" customWidth="1"/>
     <col min="18" max="18" width="15.125" style="2" customWidth="1"/>
@@ -1337,7 +1340,7 @@
         <v>52</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>54</v>
@@ -2953,10 +2956,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F17" s="2" t="b">
         <v>0</v>
@@ -2986,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P17" s="2">
         <v>0</v>
@@ -3058,16 +3061,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" s="2">
         <v>4</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F18" s="2" t="b">
         <v>0</v>
@@ -3144,6 +3147,9 @@
       </c>
       <c r="AF18" s="2">
         <v>0</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="AH18" s="2">
         <v>11</v>

--- a/Excel2JsonTool/Excel/Skill.xlsx
+++ b/Excel2JsonTool/Excel/Skill.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540" tabRatio="624"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="624"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="119">
   <si>
     <t>Id</t>
   </si>
@@ -201,6 +201,16 @@
   </si>
   <si>
     <t>名字</t>
+  </si>
+  <si>
+    <t>技能类型BuffDebuff=1,
+Projectile=2,
+Bullet = 3, 
+DoT = 4, 
+AoE = 5, 
+BasicAttack = 6, 
+Move = 7,
+MeleeSweep = 8,</t>
   </si>
   <si>
     <t>技能图标</t>
@@ -243,6 +253,42 @@
     <t>身前长度，</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（药物）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>要改变的属性id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+Strength = 1
+Int = 2
+Health = 3
+Mana = 4</t>
+    </r>
+  </si>
+  <si>
     <t>改变的时间,sttChangeDuration为0，则更改将是永久的。</t>
   </si>
   <si>
@@ -280,7 +326,9 @@
     <t>投射物的伤害</t>
   </si>
   <si>
-    <t>伤害类型</t>
+    <t>伤害类型Physical =1, 
+Fire=2, 
+Magic=3</t>
   </si>
   <si>
     <t>蓝量消耗</t>
@@ -335,6 +383,9 @@
     <t>伤害</t>
   </si>
   <si>
+    <t>伤害类型</t>
+  </si>
+  <si>
     <t>伤害范围</t>
   </si>
   <si>
@@ -384,43 +435,63 @@
     <t>float</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loat</t>
+    </r>
+  </si>
+  <si>
+    <t>AoE</t>
+  </si>
+  <si>
+    <t>PH_FireDoT</t>
+  </si>
+  <si>
     <t>0,0,0</t>
   </si>
   <si>
-    <t>float</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AoE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PH_FireDoT</t>
-  </si>
-  <si>
-    <t>PH_FireDoT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ExplosionLarge</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BaseAttack</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>baseAttack</t>
   </si>
   <si>
     <t>FireballEnemy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FireMulti</t>
   </si>
   <si>
+    <t>FireMultiMono</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>F</t>
     </r>
     <r>
@@ -428,16 +499,21 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ireball</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>-0.2</t>
     </r>
     <r>
@@ -455,7 +531,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -476,24 +551,20 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>.1</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FireballExplo</t>
   </si>
   <si>
     <t>FireExplo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FireExploMono</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FireballDoTExplo</t>
@@ -502,14 +573,6 @@
     <t>FireballMulti</t>
   </si>
   <si>
-    <t>FireMulti</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireMultiMono</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>DoT_Fire</t>
   </si>
   <si>
@@ -525,28 +588,15 @@
     <t>ManaPot</t>
   </si>
   <si>
-    <r>
-      <t>PH_</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>mana</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PH_mana</t>
-  </si>
-  <si>
-    <r>
-      <t>（药物）</t>
+      <t>PH_</t>
     </r>
     <r>
       <rPr>
@@ -556,65 +606,39 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>要改变的属性id</t>
+      <t>mana</t>
     </r>
+  </si>
+  <si>
+    <t>PH_mana</t>
+  </si>
+  <si>
+    <t>@medkit</t>
+  </si>
+  <si>
+    <t>medkit</t>
+  </si>
+  <si>
+    <t>medkitOnDelay</t>
+  </si>
+  <si>
+    <t>MeleeSweep</t>
+  </si>
+  <si>
+    <t>meleeSweep</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.
-Strength = 1
-Int = 2
-Health = 3
-Mana = 4</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>@medkit</t>
-  </si>
-  <si>
-    <t>medkit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>medkitOnDelay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MeleeSweep</t>
-  </si>
-  <si>
-    <t>meleeSweep</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>loat</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move</t>
-  </si>
-  <si>
-    <r>
       <t>m</t>
     </r>
     <r>
@@ -622,19 +646,24 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ovement</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Ray</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>r</t>
     </r>
     <r>
@@ -642,20 +671,24 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ayIcon</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>rayIconNoMana</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>R</t>
     </r>
     <r>
@@ -663,60 +696,42 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ay_DoT</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>火球</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能类型BuffDebuff=1,
-Projectile=2,
-Bullet = 3, 
-DoT = 4, 
-AoE = 5, 
-BasicAttack = 6, 
-Move = 7,
-MeleeSweep = 8,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害类型Physical =1, 
-Fire=2, 
-Magic=3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>Mega/ArcaneMegaObj</t>
+  </si>
+  <si>
+    <t>灼热射线</t>
   </si>
   <si>
     <t>arcane</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>灼热射线</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>fire</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Ray_Dot_DIY</t>
-  </si>
-  <si>
-    <t>Mega/ArcaneMegaObj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,6 +747,164 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -742,38 +915,202 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -781,9 +1118,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -797,35 +1376,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1116,62 +1742,62 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AL18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="23.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.6296296296296" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.6296296296296" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.3796296296296" style="2" customWidth="1"/>
     <col min="8" max="8" width="25.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.3796296296296" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.75" style="2" customWidth="1"/>
     <col min="12" max="12" width="17.75" style="2" customWidth="1"/>
     <col min="13" max="13" width="17" style="2" customWidth="1"/>
     <col min="14" max="14" width="18.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="20.875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="15.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.8796296296296" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.3796296296296" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.87962962962963" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.1296296296296" style="2" customWidth="1"/>
     <col min="19" max="19" width="13.75" style="2" customWidth="1"/>
-    <col min="20" max="20" width="15.625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="15.6296296296296" style="3" customWidth="1"/>
     <col min="21" max="21" width="13.5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="12.875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="12.8796296296296" style="2" customWidth="1"/>
     <col min="23" max="23" width="11.75" style="2" customWidth="1"/>
     <col min="24" max="24" width="9" style="2"/>
     <col min="25" max="25" width="23" style="2" customWidth="1"/>
-    <col min="26" max="26" width="20.125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="15.625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="20.1296296296296" style="2" customWidth="1"/>
+    <col min="27" max="27" width="15.6296296296296" style="2" customWidth="1"/>
     <col min="28" max="28" width="14.75" style="2" customWidth="1"/>
     <col min="29" max="29" width="11.5" style="2" customWidth="1"/>
     <col min="30" max="30" width="15.5" style="2" customWidth="1"/>
-    <col min="31" max="31" width="12.125" style="2" customWidth="1"/>
-    <col min="32" max="32" width="13.625" style="2" customWidth="1"/>
+    <col min="31" max="31" width="12.1296296296296" style="2" customWidth="1"/>
+    <col min="32" max="32" width="13.6296296296296" style="2" customWidth="1"/>
     <col min="33" max="33" width="23.5" style="2" customWidth="1"/>
     <col min="34" max="34" width="9" style="2"/>
-    <col min="35" max="35" width="16.125" style="2" customWidth="1"/>
+    <col min="35" max="35" width="16.1296296296296" style="2" customWidth="1"/>
     <col min="36" max="36" width="19.75" style="2" customWidth="1"/>
     <col min="37" max="37" width="9" style="2"/>
     <col min="38" max="38" width="17.75" style="2" customWidth="1"/>
     <col min="39" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1229,7 +1855,7 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
@@ -1287,253 +1913,253 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" ht="121.5">
+    <row r="2" s="1" customFormat="1" ht="129.6" spans="1:38">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>115</v>
+      <c r="C2" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="H2" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>101</v>
+        <v>47</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>116</v>
+        <v>54</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AG2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="AI2" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="S3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="AE3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL3" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>77</v>
+      <c r="B4" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>79</v>
+      <c r="D4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>0</v>
@@ -1574,8 +2200,8 @@
       <c r="S4" s="2">
         <v>0</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>75</v>
+      <c r="T4" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
@@ -1595,8 +2221,8 @@
       <c r="Z4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="AA4" s="4" t="s">
-        <v>80</v>
+      <c r="AA4" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="AB4" s="2">
         <v>22</v>
@@ -1633,17 +2259,17 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>81</v>
+      <c r="B5" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="C5" s="2">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>82</v>
+      <c r="D5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="F5" s="2" t="b">
         <v>0</v>
@@ -1684,8 +2310,8 @@
       <c r="S5" s="2">
         <v>0</v>
       </c>
-      <c r="T5" s="7" t="s">
-        <v>75</v>
+      <c r="T5" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -1705,7 +2331,7 @@
       <c r="Z5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="AA5" s="4"/>
+      <c r="AA5" s="6"/>
       <c r="AB5" s="2">
         <v>0</v>
       </c>
@@ -1741,17 +2367,17 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>83</v>
+      <c r="B6" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>93</v>
+      <c r="D6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="F6" s="2" t="b">
         <v>0</v>
@@ -1780,8 +2406,8 @@
       <c r="N6" s="2">
         <v>0</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>85</v>
+      <c r="O6" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="P6" s="2">
         <v>0</v>
@@ -1795,8 +2421,8 @@
       <c r="S6" s="2">
         <v>22</v>
       </c>
-      <c r="T6" s="8" t="s">
-        <v>86</v>
+      <c r="T6" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="U6" s="2">
         <v>8</v>
@@ -1816,7 +2442,7 @@
       <c r="Z6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="AA6" s="4"/>
+      <c r="AA6" s="6"/>
       <c r="AB6" s="2">
         <v>0</v>
       </c>
@@ -1852,47 +2478,47 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>87</v>
+      <c r="B7" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="P7" s="2">
         <v>0</v>
@@ -1906,8 +2532,8 @@
       <c r="S7" s="2">
         <v>22</v>
       </c>
-      <c r="T7" s="8" t="s">
-        <v>86</v>
+      <c r="T7" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="U7" s="2">
         <v>8</v>
@@ -1921,13 +2547,13 @@
       <c r="X7" s="2">
         <v>0</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7" s="7">
         <v>1</v>
       </c>
       <c r="Z7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="AA7" s="4"/>
+      <c r="AA7" s="6"/>
       <c r="AB7" s="2">
         <v>0</v>
       </c>
@@ -1963,47 +2589,47 @@
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>90</v>
+      <c r="B8" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="P8" s="2">
         <v>0</v>
@@ -2017,8 +2643,8 @@
       <c r="S8" s="2">
         <v>14</v>
       </c>
-      <c r="T8" s="8" t="s">
-        <v>86</v>
+      <c r="T8" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="U8" s="2">
         <v>14</v>
@@ -2032,13 +2658,13 @@
       <c r="X8" s="2">
         <v>0</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="Y8" s="7">
         <v>10</v>
       </c>
       <c r="Z8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="AA8" s="4"/>
+      <c r="AA8" s="6"/>
       <c r="AB8" s="2">
         <v>0</v>
       </c>
@@ -2074,17 +2700,17 @@
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>91</v>
+      <c r="B9" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>93</v>
+      <c r="D9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="F9" s="2" t="b">
         <v>0</v>
@@ -2113,8 +2739,8 @@
       <c r="N9" s="2">
         <v>0</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>85</v>
+      <c r="O9" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="P9" s="2">
         <v>0</v>
@@ -2128,8 +2754,8 @@
       <c r="S9" s="2">
         <v>22</v>
       </c>
-      <c r="T9" s="8" t="s">
-        <v>86</v>
+      <c r="T9" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="U9" s="2">
         <v>8</v>
@@ -2143,13 +2769,13 @@
       <c r="X9" s="2">
         <v>0</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Y9" s="7">
         <v>8</v>
       </c>
       <c r="Z9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="AA9" s="4"/>
+      <c r="AA9" s="6"/>
       <c r="AB9" s="2">
         <v>0</v>
       </c>
@@ -2185,17 +2811,17 @@
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>94</v>
+      <c r="B10" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>79</v>
+      <c r="D10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="F10" s="2" t="b">
         <v>0</v>
@@ -2236,8 +2862,8 @@
       <c r="S10" s="2">
         <v>0</v>
       </c>
-      <c r="T10" s="7" t="s">
-        <v>75</v>
+      <c r="T10" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
@@ -2257,7 +2883,7 @@
       <c r="Z10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="AA10" s="4"/>
+      <c r="AA10" s="6"/>
       <c r="AB10" s="2">
         <v>0</v>
       </c>
@@ -2274,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AH10" s="2">
         <v>22</v>
@@ -2296,17 +2922,17 @@
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>96</v>
+      <c r="B11" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="C11" s="2">
         <v>5</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>93</v>
+      <c r="D11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="F11" s="2" t="b">
         <v>0</v>
@@ -2347,8 +2973,8 @@
       <c r="S11" s="2">
         <v>0</v>
       </c>
-      <c r="T11" s="7" t="s">
-        <v>75</v>
+      <c r="T11" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
@@ -2368,8 +2994,8 @@
       <c r="Z11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="AA11" s="4" t="s">
-        <v>97</v>
+      <c r="AA11" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="AB11" s="2">
         <v>0</v>
@@ -2406,17 +3032,17 @@
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>98</v>
+      <c r="B12" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="7" t="s">
         <v>100</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="F12" s="2" t="b">
         <v>0</v>
@@ -2457,8 +3083,8 @@
       <c r="S12" s="2">
         <v>0</v>
       </c>
-      <c r="T12" s="7" t="s">
-        <v>75</v>
+      <c r="T12" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
@@ -2478,7 +3104,7 @@
       <c r="Z12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="AA12" s="4"/>
+      <c r="AA12" s="6"/>
       <c r="AB12" s="2">
         <v>0</v>
       </c>
@@ -2514,16 +3140,16 @@
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>102</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F13" s="2" t="b">
@@ -2565,8 +3191,8 @@
       <c r="S13" s="2">
         <v>0</v>
       </c>
-      <c r="T13" s="7" t="s">
-        <v>75</v>
+      <c r="T13" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
@@ -2586,7 +3212,7 @@
       <c r="Z13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="AA13" s="4"/>
+      <c r="AA13" s="6"/>
       <c r="AB13" s="2">
         <v>0</v>
       </c>
@@ -2622,16 +3248,16 @@
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C14" s="2">
         <v>8</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F14" s="2" t="b">
@@ -2647,7 +3273,7 @@
         <v>0.6</v>
       </c>
       <c r="J14" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -2673,8 +3299,8 @@
       <c r="S14" s="2">
         <v>0</v>
       </c>
-      <c r="T14" s="7" t="s">
-        <v>75</v>
+      <c r="T14" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
@@ -2694,7 +3320,7 @@
       <c r="Z14" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="AA14" s="4"/>
+      <c r="AA14" s="6"/>
       <c r="AB14" s="2">
         <v>0</v>
       </c>
@@ -2730,17 +3356,17 @@
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>108</v>
+      <c r="B15" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="C15" s="2">
         <v>7</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>109</v>
+      <c r="D15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="F15" s="2" t="b">
         <v>0</v>
@@ -2781,8 +3407,8 @@
       <c r="S15" s="2">
         <v>0</v>
       </c>
-      <c r="T15" s="7" t="s">
-        <v>75</v>
+      <c r="T15" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
@@ -2802,7 +3428,7 @@
       <c r="Z15" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="AA15" s="4"/>
+      <c r="AA15" s="6"/>
       <c r="AB15" s="2">
         <v>0</v>
       </c>
@@ -2838,18 +3464,18 @@
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>110</v>
+      <c r="B16" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="C16" s="2">
         <v>4</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="F16" s="2" t="b">
         <v>0</v>
       </c>
@@ -2889,8 +3515,8 @@
       <c r="S16" s="2">
         <v>0</v>
       </c>
-      <c r="T16" s="7" t="s">
-        <v>75</v>
+      <c r="T16" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
@@ -2910,7 +3536,7 @@
       <c r="Z16" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="AA16" s="4"/>
+      <c r="AA16" s="6"/>
       <c r="AB16" s="2">
         <v>0</v>
       </c>
@@ -2926,8 +3552,8 @@
       <c r="AF16" s="2">
         <v>0</v>
       </c>
-      <c r="AG16" s="5" t="s">
-        <v>113</v>
+      <c r="AG16" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="AH16" s="2">
         <v>22</v>
@@ -2949,17 +3575,17 @@
       <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>114</v>
+      <c r="B17" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>119</v>
+      <c r="D17" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="F17" s="2" t="b">
         <v>0</v>
@@ -2988,8 +3614,8 @@
       <c r="N17" s="2">
         <v>0</v>
       </c>
-      <c r="O17" s="4" t="s">
-        <v>121</v>
+      <c r="O17" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="P17" s="2">
         <v>0</v>
@@ -3003,8 +3629,8 @@
       <c r="S17" s="2">
         <v>30</v>
       </c>
-      <c r="T17" s="8" t="s">
-        <v>86</v>
+      <c r="T17" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="U17" s="2">
         <v>8</v>
@@ -3024,7 +3650,7 @@
       <c r="Z17" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="AA17" s="4"/>
+      <c r="AA17" s="6"/>
       <c r="AB17" s="2">
         <v>0</v>
       </c>
@@ -3060,16 +3686,16 @@
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>118</v>
+      <c r="B18" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="C18" s="2">
         <v>4</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="6" t="s">
         <v>117</v>
       </c>
       <c r="F18" s="2" t="b">
@@ -3111,8 +3737,8 @@
       <c r="S18" s="2">
         <v>0</v>
       </c>
-      <c r="T18" s="7" t="s">
-        <v>75</v>
+      <c r="T18" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
@@ -3132,7 +3758,7 @@
       <c r="Z18" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="AA18" s="4"/>
+      <c r="AA18" s="6"/>
       <c r="AB18" s="2">
         <v>0</v>
       </c>
@@ -3149,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AH18" s="2">
         <v>11</v>
@@ -3168,37 +3794,43 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel2JsonTool/Excel/Skill.xlsx
+++ b/Excel2JsonTool/Excel/Skill.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="624"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="624"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="121">
   <si>
     <t>Id</t>
   </si>
@@ -720,18 +720,19 @@
   <si>
     <t>Ray_Dot_DIY</t>
   </si>
+  <si>
+    <t>龙卷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpinningAirWhirls</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,150 +762,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -915,202 +772,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1118,251 +795,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1401,57 +836,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1742,62 +1130,62 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AL18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AL19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="$A17:$XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="23.6296296296296" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.6296296296296" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.6296296296296" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.3796296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="25.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.3796296296296" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.75" style="2" customWidth="1"/>
     <col min="12" max="12" width="17.75" style="2" customWidth="1"/>
     <col min="13" max="13" width="17" style="2" customWidth="1"/>
     <col min="14" max="14" width="18.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="20.8796296296296" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.3796296296296" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.87962962962963" style="2" customWidth="1"/>
-    <col min="18" max="18" width="15.1296296296296" style="2" customWidth="1"/>
+    <col min="15" max="15" width="31" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.125" style="2" customWidth="1"/>
     <col min="19" max="19" width="13.75" style="2" customWidth="1"/>
-    <col min="20" max="20" width="15.6296296296296" style="3" customWidth="1"/>
+    <col min="20" max="20" width="15.625" style="3" customWidth="1"/>
     <col min="21" max="21" width="13.5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="12.8796296296296" style="2" customWidth="1"/>
+    <col min="22" max="22" width="12.875" style="2" customWidth="1"/>
     <col min="23" max="23" width="11.75" style="2" customWidth="1"/>
     <col min="24" max="24" width="9" style="2"/>
     <col min="25" max="25" width="23" style="2" customWidth="1"/>
-    <col min="26" max="26" width="20.1296296296296" style="2" customWidth="1"/>
-    <col min="27" max="27" width="15.6296296296296" style="2" customWidth="1"/>
+    <col min="26" max="26" width="20.125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="15.625" style="2" customWidth="1"/>
     <col min="28" max="28" width="14.75" style="2" customWidth="1"/>
     <col min="29" max="29" width="11.5" style="2" customWidth="1"/>
     <col min="30" max="30" width="15.5" style="2" customWidth="1"/>
-    <col min="31" max="31" width="12.1296296296296" style="2" customWidth="1"/>
-    <col min="32" max="32" width="13.6296296296296" style="2" customWidth="1"/>
+    <col min="31" max="31" width="12.125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="13.625" style="2" customWidth="1"/>
     <col min="33" max="33" width="23.5" style="2" customWidth="1"/>
     <col min="34" max="34" width="9" style="2"/>
-    <col min="35" max="35" width="16.1296296296296" style="2" customWidth="1"/>
+    <col min="35" max="35" width="16.125" style="2" customWidth="1"/>
     <col min="36" max="36" width="19.75" style="2" customWidth="1"/>
     <col min="37" max="37" width="9" style="2"/>
     <col min="38" max="38" width="17.75" style="2" customWidth="1"/>
     <col min="39" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:38">
+    <row r="1" spans="1:38" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1913,7 +1301,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="129.6" spans="1:38">
+    <row r="2" spans="1:38" s="1" customFormat="1" ht="121.5">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -3273,7 +2661,7 @@
         <v>0.6</v>
       </c>
       <c r="J14" s="2">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -3793,44 +3181,149 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:38" ht="27" customHeight="1">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>25</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1</v>
+      </c>
+      <c r="S19" s="2">
+        <v>30</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="U19" s="2">
+        <v>8</v>
+      </c>
+      <c r="V19" s="2">
+        <v>3</v>
+      </c>
+      <c r="W19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>11</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="AJ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>